--- a/medicine/Enfance/Georges_Le_Cordier/Georges_Le_Cordier.xlsx
+++ b/medicine/Enfance/Georges_Le_Cordier/Georges_Le_Cordier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Le Cordier, né Paul Léon Lecordier à Paris 16e le 1er février 1870[1], est un auteur de livres pour enfants du début du XXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Le Cordier, né Paul Léon Lecordier à Paris 16e le 1er février 1870, est un auteur de livres pour enfants du début du XXe siècle.
 Il travaille essentiellement pour les éditions Delagrave et ses textes sont illustrés par les plus grands illustrateurs du début du siècle.
 En 1908, il rédige pour le journal Saint-Nicolas le texte de Sam et Sap, la première bande dessinée utilisant des phylactères, avec les dessins de Rose Candide.
-Le 1er avril 1903 il a épousé Marie Alice Abraham, dite Colette Henri-Ardel[2] et est le père de Mgr Jacques Le Cordier.
+Le 1er avril 1903 il a épousé Marie Alice Abraham, dite Colette Henri-Ardel et est le père de Mgr Jacques Le Cordier.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sam et Sap, illustrations de Rose Candide
 Le Malgache alimentaire, illustrations de Pinchon 1904
